--- a/Utilities/music/tracker.xlsx
+++ b/Utilities/music/tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="track encoder" sheetId="8" r:id="rId1"/>
@@ -910,6 +910,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -928,10 +932,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1239,7 +1239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
@@ -1422,10 +1422,10 @@
         <f t="shared" si="5"/>
         <v>0x7889,0x1468,</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="P4" s="62" t="str">
+      <c r="P4" s="56" t="str">
         <f>CONCATENATE("int myTrack[] = {0x0005,",P3,"0x0000};")</f>
         <v>int myTrack[] = {0x0005,0x3089,0x208,0x238,0x7889,0x1468,0x0000};</v>
       </c>
@@ -10550,54 +10550,54 @@
       <c r="A1" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="55" t="s">
         <v>126</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="55" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="55" t="s">
         <v>126</v>
       </c>
       <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="55" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="63">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
       <c r="B2" s="43">
         <f t="shared" ref="B2:B32" si="0">A2*$N$7</f>
         <v>1024</v>
       </c>
-      <c r="C2" s="63">
+      <c r="C2" s="57">
         <v>2</v>
       </c>
       <c r="D2" s="43">
         <f t="shared" ref="D2:D32" si="1">C2*$N$6</f>
         <v>32</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="57">
         <v>0</v>
       </c>
       <c r="F2" s="43">
         <f t="shared" ref="F2:F32" si="2">E2*$N$5</f>
         <v>0</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="57">
         <v>7</v>
       </c>
       <c r="H2" s="43">
@@ -10610,22 +10610,22 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E3" s="63"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G3" s="63"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10634,34 +10634,34 @@
         <f t="shared" ref="I3:I32" si="4">IF(C3&gt;0,CONCATENATE("0x",DEC2HEX(B3+D3+F3+H3),","),"")</f>
         <v/>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="55" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G4" s="63"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10685,22 +10685,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="63"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G5" s="63"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10725,22 +10725,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="63"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G6" s="63"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10765,22 +10765,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="63"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G7" s="63"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10805,22 +10805,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="63"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="63"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10840,22 +10840,22 @@
       <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="63"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="63"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10866,22 +10866,22 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="63"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="63"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10899,22 +10899,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="63"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="63"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10926,27 +10926,27 @@
       <c r="K11" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="63"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10964,22 +10964,22 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="63"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="63"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10997,22 +10997,22 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="63"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="63"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11021,31 +11021,31 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="L14" s="62" t="str">
+      <c r="L14" s="56" t="str">
         <f>CONCATENATE("PROGMEM uint16_t myInstrument[] = {",L12,L13,"};")</f>
         <v>PROGMEM uint16_t myInstrument[] = {0x11,0x427,};</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="63"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="63"/>
+      <c r="G15" s="57"/>
       <c r="H15" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11056,22 +11056,22 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="63"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="63"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11085,22 +11085,22 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="63"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="63"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11114,22 +11114,22 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="63"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11143,22 +11143,22 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="63"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="63"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11169,22 +11169,22 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="63"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="63"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11195,22 +11195,22 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E21" s="63"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="63"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11221,22 +11221,22 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="63"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="63"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11247,22 +11247,22 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E23" s="63"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="63"/>
+      <c r="G23" s="57"/>
       <c r="H23" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11273,22 +11273,22 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E24" s="63"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="57"/>
       <c r="H24" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11299,22 +11299,22 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E25" s="63"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="63"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11325,22 +11325,22 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E26" s="63"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G26" s="63"/>
+      <c r="G26" s="57"/>
       <c r="H26" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11351,22 +11351,22 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E27" s="63"/>
+      <c r="E27" s="57"/>
       <c r="F27" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G27" s="63"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11377,22 +11377,22 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E28" s="63"/>
+      <c r="E28" s="57"/>
       <c r="F28" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="63"/>
+      <c r="G28" s="57"/>
       <c r="H28" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11403,22 +11403,22 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E29" s="63"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G29" s="63"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11429,22 +11429,22 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E30" s="63"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G30" s="63"/>
+      <c r="G30" s="57"/>
       <c r="H30" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11455,22 +11455,22 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E31" s="63"/>
+      <c r="E31" s="57"/>
       <c r="F31" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="63"/>
+      <c r="G31" s="57"/>
       <c r="H31" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11481,22 +11481,22 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E32" s="63"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G32" s="63"/>
+      <c r="G32" s="57"/>
       <c r="H32" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11507,22 +11507,22 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="43">
         <f t="shared" ref="B33:B96" si="6">A33*$N$7</f>
         <v>0</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="43">
         <f t="shared" ref="D33:D96" si="7">C33*$N$6</f>
         <v>0</v>
       </c>
-      <c r="E33" s="63"/>
+      <c r="E33" s="57"/>
       <c r="F33" s="43">
         <f t="shared" ref="F33:F96" si="8">E33*$N$5</f>
         <v>0</v>
       </c>
-      <c r="G33" s="63"/>
+      <c r="G33" s="57"/>
       <c r="H33" s="43">
         <f t="shared" ref="H33:H96" si="9">G33*$N$4</f>
         <v>0</v>
@@ -11533,22 +11533,22 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E34" s="63"/>
+      <c r="E34" s="57"/>
       <c r="F34" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G34" s="63"/>
+      <c r="G34" s="57"/>
       <c r="H34" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11559,22 +11559,22 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E35" s="63"/>
+      <c r="E35" s="57"/>
       <c r="F35" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G35" s="63"/>
+      <c r="G35" s="57"/>
       <c r="H35" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11585,22 +11585,22 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E36" s="63"/>
+      <c r="E36" s="57"/>
       <c r="F36" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G36" s="63"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11611,22 +11611,22 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C37" s="63"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E37" s="63"/>
+      <c r="E37" s="57"/>
       <c r="F37" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G37" s="63"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11637,22 +11637,22 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C38" s="63"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E38" s="63"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G38" s="63"/>
+      <c r="G38" s="57"/>
       <c r="H38" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11663,22 +11663,22 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C39" s="63"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E39" s="63"/>
+      <c r="E39" s="57"/>
       <c r="F39" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G39" s="63"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11689,22 +11689,22 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E40" s="63"/>
+      <c r="E40" s="57"/>
       <c r="F40" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G40" s="63"/>
+      <c r="G40" s="57"/>
       <c r="H40" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11715,22 +11715,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C41" s="63"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E41" s="63"/>
+      <c r="E41" s="57"/>
       <c r="F41" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G41" s="63"/>
+      <c r="G41" s="57"/>
       <c r="H41" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11741,22 +11741,22 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C42" s="63"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E42" s="63"/>
+      <c r="E42" s="57"/>
       <c r="F42" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G42" s="63"/>
+      <c r="G42" s="57"/>
       <c r="H42" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11767,22 +11767,22 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C43" s="63"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E43" s="63"/>
+      <c r="E43" s="57"/>
       <c r="F43" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G43" s="63"/>
+      <c r="G43" s="57"/>
       <c r="H43" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11793,22 +11793,22 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C44" s="63"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E44" s="63"/>
+      <c r="E44" s="57"/>
       <c r="F44" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G44" s="63"/>
+      <c r="G44" s="57"/>
       <c r="H44" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11819,22 +11819,22 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C45" s="63"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E45" s="63"/>
+      <c r="E45" s="57"/>
       <c r="F45" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G45" s="63"/>
+      <c r="G45" s="57"/>
       <c r="H45" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11845,22 +11845,22 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C46" s="63"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E46" s="63"/>
+      <c r="E46" s="57"/>
       <c r="F46" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G46" s="63"/>
+      <c r="G46" s="57"/>
       <c r="H46" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11871,22 +11871,22 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C47" s="63"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E47" s="63"/>
+      <c r="E47" s="57"/>
       <c r="F47" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G47" s="63"/>
+      <c r="G47" s="57"/>
       <c r="H47" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11897,22 +11897,22 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C48" s="63"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E48" s="63"/>
+      <c r="E48" s="57"/>
       <c r="F48" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G48" s="63"/>
+      <c r="G48" s="57"/>
       <c r="H48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11923,22 +11923,22 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C49" s="63"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E49" s="63"/>
+      <c r="E49" s="57"/>
       <c r="F49" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G49" s="63"/>
+      <c r="G49" s="57"/>
       <c r="H49" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11949,22 +11949,22 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="63"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C50" s="63"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E50" s="63"/>
+      <c r="E50" s="57"/>
       <c r="F50" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G50" s="63"/>
+      <c r="G50" s="57"/>
       <c r="H50" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11975,22 +11975,22 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="63"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C51" s="63"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E51" s="63"/>
+      <c r="E51" s="57"/>
       <c r="F51" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G51" s="63"/>
+      <c r="G51" s="57"/>
       <c r="H51" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12001,22 +12001,22 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C52" s="63"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E52" s="63"/>
+      <c r="E52" s="57"/>
       <c r="F52" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G52" s="63"/>
+      <c r="G52" s="57"/>
       <c r="H52" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12027,22 +12027,22 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C53" s="63"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E53" s="63"/>
+      <c r="E53" s="57"/>
       <c r="F53" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G53" s="63"/>
+      <c r="G53" s="57"/>
       <c r="H53" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12053,22 +12053,22 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C54" s="63"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E54" s="63"/>
+      <c r="E54" s="57"/>
       <c r="F54" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G54" s="63"/>
+      <c r="G54" s="57"/>
       <c r="H54" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12079,22 +12079,22 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C55" s="63"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E55" s="63"/>
+      <c r="E55" s="57"/>
       <c r="F55" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G55" s="63"/>
+      <c r="G55" s="57"/>
       <c r="H55" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12105,22 +12105,22 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C56" s="63"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E56" s="63"/>
+      <c r="E56" s="57"/>
       <c r="F56" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G56" s="63"/>
+      <c r="G56" s="57"/>
       <c r="H56" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12131,22 +12131,22 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C57" s="63"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E57" s="63"/>
+      <c r="E57" s="57"/>
       <c r="F57" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G57" s="63"/>
+      <c r="G57" s="57"/>
       <c r="H57" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12157,22 +12157,22 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C58" s="63"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E58" s="63"/>
+      <c r="E58" s="57"/>
       <c r="F58" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G58" s="63"/>
+      <c r="G58" s="57"/>
       <c r="H58" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12183,22 +12183,22 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C59" s="63"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E59" s="63"/>
+      <c r="E59" s="57"/>
       <c r="F59" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G59" s="63"/>
+      <c r="G59" s="57"/>
       <c r="H59" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12209,22 +12209,22 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="63"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C60" s="63"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E60" s="63"/>
+      <c r="E60" s="57"/>
       <c r="F60" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G60" s="63"/>
+      <c r="G60" s="57"/>
       <c r="H60" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12235,22 +12235,22 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C61" s="63"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E61" s="63"/>
+      <c r="E61" s="57"/>
       <c r="F61" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G61" s="63"/>
+      <c r="G61" s="57"/>
       <c r="H61" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12261,22 +12261,22 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C62" s="63"/>
+      <c r="C62" s="57"/>
       <c r="D62" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E62" s="63"/>
+      <c r="E62" s="57"/>
       <c r="F62" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G62" s="63"/>
+      <c r="G62" s="57"/>
       <c r="H62" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12287,22 +12287,22 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C63" s="63"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E63" s="63"/>
+      <c r="E63" s="57"/>
       <c r="F63" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G63" s="63"/>
+      <c r="G63" s="57"/>
       <c r="H63" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12313,22 +12313,22 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C64" s="63"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E64" s="63"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G64" s="63"/>
+      <c r="G64" s="57"/>
       <c r="H64" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12339,22 +12339,22 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C65" s="63"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E65" s="63"/>
+      <c r="E65" s="57"/>
       <c r="F65" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G65" s="63"/>
+      <c r="G65" s="57"/>
       <c r="H65" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12365,22 +12365,22 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C66" s="63"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E66" s="63"/>
+      <c r="E66" s="57"/>
       <c r="F66" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G66" s="63"/>
+      <c r="G66" s="57"/>
       <c r="H66" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12391,22 +12391,22 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C67" s="63"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E67" s="63"/>
+      <c r="E67" s="57"/>
       <c r="F67" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G67" s="63"/>
+      <c r="G67" s="57"/>
       <c r="H67" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12417,22 +12417,22 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="63"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C68" s="63"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E68" s="63"/>
+      <c r="E68" s="57"/>
       <c r="F68" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G68" s="63"/>
+      <c r="G68" s="57"/>
       <c r="H68" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12443,22 +12443,22 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="63"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C69" s="63"/>
+      <c r="C69" s="57"/>
       <c r="D69" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E69" s="63"/>
+      <c r="E69" s="57"/>
       <c r="F69" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G69" s="63"/>
+      <c r="G69" s="57"/>
       <c r="H69" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12469,22 +12469,22 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C70" s="63"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E70" s="63"/>
+      <c r="E70" s="57"/>
       <c r="F70" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G70" s="63"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12495,22 +12495,22 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C71" s="63"/>
+      <c r="C71" s="57"/>
       <c r="D71" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E71" s="63"/>
+      <c r="E71" s="57"/>
       <c r="F71" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G71" s="63"/>
+      <c r="G71" s="57"/>
       <c r="H71" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12521,22 +12521,22 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C72" s="63"/>
+      <c r="C72" s="57"/>
       <c r="D72" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E72" s="63"/>
+      <c r="E72" s="57"/>
       <c r="F72" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G72" s="63"/>
+      <c r="G72" s="57"/>
       <c r="H72" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12547,22 +12547,22 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="63"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C73" s="63"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E73" s="63"/>
+      <c r="E73" s="57"/>
       <c r="F73" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G73" s="63"/>
+      <c r="G73" s="57"/>
       <c r="H73" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12573,22 +12573,22 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="63"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C74" s="63"/>
+      <c r="C74" s="57"/>
       <c r="D74" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E74" s="63"/>
+      <c r="E74" s="57"/>
       <c r="F74" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G74" s="63"/>
+      <c r="G74" s="57"/>
       <c r="H74" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12599,22 +12599,22 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="63"/>
+      <c r="A75" s="57"/>
       <c r="B75" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C75" s="63"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E75" s="63"/>
+      <c r="E75" s="57"/>
       <c r="F75" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G75" s="63"/>
+      <c r="G75" s="57"/>
       <c r="H75" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12625,22 +12625,22 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C76" s="63"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E76" s="63"/>
+      <c r="E76" s="57"/>
       <c r="F76" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G76" s="63"/>
+      <c r="G76" s="57"/>
       <c r="H76" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12651,22 +12651,22 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
+      <c r="A77" s="57"/>
       <c r="B77" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C77" s="63"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E77" s="63"/>
+      <c r="E77" s="57"/>
       <c r="F77" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G77" s="63"/>
+      <c r="G77" s="57"/>
       <c r="H77" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12677,22 +12677,22 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="63"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C78" s="63"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E78" s="63"/>
+      <c r="E78" s="57"/>
       <c r="F78" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G78" s="63"/>
+      <c r="G78" s="57"/>
       <c r="H78" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12703,22 +12703,22 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="63"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C79" s="63"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E79" s="63"/>
+      <c r="E79" s="57"/>
       <c r="F79" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G79" s="63"/>
+      <c r="G79" s="57"/>
       <c r="H79" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12729,22 +12729,22 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="63"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C80" s="63"/>
+      <c r="C80" s="57"/>
       <c r="D80" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E80" s="63"/>
+      <c r="E80" s="57"/>
       <c r="F80" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G80" s="63"/>
+      <c r="G80" s="57"/>
       <c r="H80" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12755,22 +12755,22 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="63"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C81" s="63"/>
+      <c r="C81" s="57"/>
       <c r="D81" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E81" s="63"/>
+      <c r="E81" s="57"/>
       <c r="F81" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G81" s="63"/>
+      <c r="G81" s="57"/>
       <c r="H81" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12781,22 +12781,22 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="63"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C82" s="63"/>
+      <c r="C82" s="57"/>
       <c r="D82" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E82" s="63"/>
+      <c r="E82" s="57"/>
       <c r="F82" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G82" s="63"/>
+      <c r="G82" s="57"/>
       <c r="H82" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12807,22 +12807,22 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C83" s="63"/>
+      <c r="C83" s="57"/>
       <c r="D83" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E83" s="63"/>
+      <c r="E83" s="57"/>
       <c r="F83" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G83" s="63"/>
+      <c r="G83" s="57"/>
       <c r="H83" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12833,22 +12833,22 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="63"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C84" s="63"/>
+      <c r="C84" s="57"/>
       <c r="D84" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E84" s="63"/>
+      <c r="E84" s="57"/>
       <c r="F84" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G84" s="63"/>
+      <c r="G84" s="57"/>
       <c r="H84" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12859,22 +12859,22 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="63"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C85" s="63"/>
+      <c r="C85" s="57"/>
       <c r="D85" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E85" s="63"/>
+      <c r="E85" s="57"/>
       <c r="F85" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G85" s="63"/>
+      <c r="G85" s="57"/>
       <c r="H85" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12885,22 +12885,22 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="63"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C86" s="63"/>
+      <c r="C86" s="57"/>
       <c r="D86" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E86" s="63"/>
+      <c r="E86" s="57"/>
       <c r="F86" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G86" s="63"/>
+      <c r="G86" s="57"/>
       <c r="H86" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12911,22 +12911,22 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="63"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C87" s="63"/>
+      <c r="C87" s="57"/>
       <c r="D87" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E87" s="63"/>
+      <c r="E87" s="57"/>
       <c r="F87" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G87" s="63"/>
+      <c r="G87" s="57"/>
       <c r="H87" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12937,22 +12937,22 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="63"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C88" s="63"/>
+      <c r="C88" s="57"/>
       <c r="D88" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E88" s="63"/>
+      <c r="E88" s="57"/>
       <c r="F88" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G88" s="63"/>
+      <c r="G88" s="57"/>
       <c r="H88" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12963,22 +12963,22 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="63"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C89" s="63"/>
+      <c r="C89" s="57"/>
       <c r="D89" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E89" s="63"/>
+      <c r="E89" s="57"/>
       <c r="F89" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G89" s="63"/>
+      <c r="G89" s="57"/>
       <c r="H89" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -12989,22 +12989,22 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="63"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C90" s="63"/>
+      <c r="C90" s="57"/>
       <c r="D90" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E90" s="63"/>
+      <c r="E90" s="57"/>
       <c r="F90" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G90" s="63"/>
+      <c r="G90" s="57"/>
       <c r="H90" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -13015,22 +13015,22 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="63"/>
+      <c r="A91" s="57"/>
       <c r="B91" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C91" s="63"/>
+      <c r="C91" s="57"/>
       <c r="D91" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E91" s="63"/>
+      <c r="E91" s="57"/>
       <c r="F91" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G91" s="63"/>
+      <c r="G91" s="57"/>
       <c r="H91" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -13041,22 +13041,22 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="63"/>
+      <c r="A92" s="57"/>
       <c r="B92" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C92" s="63"/>
+      <c r="C92" s="57"/>
       <c r="D92" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E92" s="63"/>
+      <c r="E92" s="57"/>
       <c r="F92" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G92" s="63"/>
+      <c r="G92" s="57"/>
       <c r="H92" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -13067,22 +13067,22 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="63"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C93" s="63"/>
+      <c r="C93" s="57"/>
       <c r="D93" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E93" s="63"/>
+      <c r="E93" s="57"/>
       <c r="F93" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G93" s="63"/>
+      <c r="G93" s="57"/>
       <c r="H93" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -13093,22 +13093,22 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="63"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C94" s="63"/>
+      <c r="C94" s="57"/>
       <c r="D94" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E94" s="63"/>
+      <c r="E94" s="57"/>
       <c r="F94" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G94" s="63"/>
+      <c r="G94" s="57"/>
       <c r="H94" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -13119,22 +13119,22 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="63"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C95" s="63"/>
+      <c r="C95" s="57"/>
       <c r="D95" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E95" s="63"/>
+      <c r="E95" s="57"/>
       <c r="F95" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G95" s="63"/>
+      <c r="G95" s="57"/>
       <c r="H95" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -13145,22 +13145,22 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="63"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C96" s="63"/>
+      <c r="C96" s="57"/>
       <c r="D96" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E96" s="63"/>
+      <c r="E96" s="57"/>
       <c r="F96" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G96" s="63"/>
+      <c r="G96" s="57"/>
       <c r="H96" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -13171,22 +13171,22 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="63"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="43">
         <f t="shared" ref="B97:B160" si="11">A97*$N$7</f>
         <v>0</v>
       </c>
-      <c r="C97" s="63"/>
+      <c r="C97" s="57"/>
       <c r="D97" s="43">
         <f t="shared" ref="D97:D160" si="12">C97*$N$6</f>
         <v>0</v>
       </c>
-      <c r="E97" s="63"/>
+      <c r="E97" s="57"/>
       <c r="F97" s="43">
         <f t="shared" ref="F97:F160" si="13">E97*$N$5</f>
         <v>0</v>
       </c>
-      <c r="G97" s="63"/>
+      <c r="G97" s="57"/>
       <c r="H97" s="43">
         <f t="shared" ref="H97:H160" si="14">G97*$N$4</f>
         <v>0</v>
@@ -13197,22 +13197,22 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="63"/>
+      <c r="A98" s="57"/>
       <c r="B98" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C98" s="63"/>
+      <c r="C98" s="57"/>
       <c r="D98" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E98" s="63"/>
+      <c r="E98" s="57"/>
       <c r="F98" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G98" s="63"/>
+      <c r="G98" s="57"/>
       <c r="H98" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13223,22 +13223,22 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="63"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C99" s="63"/>
+      <c r="C99" s="57"/>
       <c r="D99" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E99" s="63"/>
+      <c r="E99" s="57"/>
       <c r="F99" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G99" s="63"/>
+      <c r="G99" s="57"/>
       <c r="H99" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13249,22 +13249,22 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="63"/>
+      <c r="A100" s="57"/>
       <c r="B100" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C100" s="63"/>
+      <c r="C100" s="57"/>
       <c r="D100" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E100" s="63"/>
+      <c r="E100" s="57"/>
       <c r="F100" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G100" s="63"/>
+      <c r="G100" s="57"/>
       <c r="H100" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13275,22 +13275,22 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="63"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C101" s="63"/>
+      <c r="C101" s="57"/>
       <c r="D101" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E101" s="63"/>
+      <c r="E101" s="57"/>
       <c r="F101" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G101" s="63"/>
+      <c r="G101" s="57"/>
       <c r="H101" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13301,22 +13301,22 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="63"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C102" s="63"/>
+      <c r="C102" s="57"/>
       <c r="D102" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E102" s="63"/>
+      <c r="E102" s="57"/>
       <c r="F102" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G102" s="63"/>
+      <c r="G102" s="57"/>
       <c r="H102" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13327,22 +13327,22 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="63"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C103" s="63"/>
+      <c r="C103" s="57"/>
       <c r="D103" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E103" s="63"/>
+      <c r="E103" s="57"/>
       <c r="F103" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G103" s="63"/>
+      <c r="G103" s="57"/>
       <c r="H103" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13353,22 +13353,22 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="63"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C104" s="63"/>
+      <c r="C104" s="57"/>
       <c r="D104" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E104" s="63"/>
+      <c r="E104" s="57"/>
       <c r="F104" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G104" s="63"/>
+      <c r="G104" s="57"/>
       <c r="H104" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13379,22 +13379,22 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="63"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C105" s="63"/>
+      <c r="C105" s="57"/>
       <c r="D105" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E105" s="63"/>
+      <c r="E105" s="57"/>
       <c r="F105" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G105" s="63"/>
+      <c r="G105" s="57"/>
       <c r="H105" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13405,22 +13405,22 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="63"/>
+      <c r="A106" s="57"/>
       <c r="B106" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C106" s="63"/>
+      <c r="C106" s="57"/>
       <c r="D106" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E106" s="63"/>
+      <c r="E106" s="57"/>
       <c r="F106" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G106" s="63"/>
+      <c r="G106" s="57"/>
       <c r="H106" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13431,22 +13431,22 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="63"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C107" s="63"/>
+      <c r="C107" s="57"/>
       <c r="D107" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E107" s="63"/>
+      <c r="E107" s="57"/>
       <c r="F107" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G107" s="63"/>
+      <c r="G107" s="57"/>
       <c r="H107" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13457,22 +13457,22 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="63"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C108" s="63"/>
+      <c r="C108" s="57"/>
       <c r="D108" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E108" s="63"/>
+      <c r="E108" s="57"/>
       <c r="F108" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G108" s="63"/>
+      <c r="G108" s="57"/>
       <c r="H108" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13483,22 +13483,22 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="63"/>
+      <c r="A109" s="57"/>
       <c r="B109" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C109" s="63"/>
+      <c r="C109" s="57"/>
       <c r="D109" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E109" s="63"/>
+      <c r="E109" s="57"/>
       <c r="F109" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G109" s="63"/>
+      <c r="G109" s="57"/>
       <c r="H109" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13509,22 +13509,22 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="63"/>
+      <c r="A110" s="57"/>
       <c r="B110" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C110" s="63"/>
+      <c r="C110" s="57"/>
       <c r="D110" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E110" s="63"/>
+      <c r="E110" s="57"/>
       <c r="F110" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G110" s="63"/>
+      <c r="G110" s="57"/>
       <c r="H110" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13535,22 +13535,22 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="63"/>
+      <c r="A111" s="57"/>
       <c r="B111" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C111" s="63"/>
+      <c r="C111" s="57"/>
       <c r="D111" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E111" s="63"/>
+      <c r="E111" s="57"/>
       <c r="F111" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G111" s="63"/>
+      <c r="G111" s="57"/>
       <c r="H111" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13561,22 +13561,22 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="63"/>
+      <c r="A112" s="57"/>
       <c r="B112" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C112" s="63"/>
+      <c r="C112" s="57"/>
       <c r="D112" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E112" s="63"/>
+      <c r="E112" s="57"/>
       <c r="F112" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G112" s="63"/>
+      <c r="G112" s="57"/>
       <c r="H112" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13587,22 +13587,22 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="63"/>
+      <c r="A113" s="57"/>
       <c r="B113" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C113" s="63"/>
+      <c r="C113" s="57"/>
       <c r="D113" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E113" s="63"/>
+      <c r="E113" s="57"/>
       <c r="F113" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G113" s="63"/>
+      <c r="G113" s="57"/>
       <c r="H113" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13613,22 +13613,22 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="63"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C114" s="63"/>
+      <c r="C114" s="57"/>
       <c r="D114" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E114" s="63"/>
+      <c r="E114" s="57"/>
       <c r="F114" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G114" s="63"/>
+      <c r="G114" s="57"/>
       <c r="H114" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13639,22 +13639,22 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="63"/>
+      <c r="A115" s="57"/>
       <c r="B115" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C115" s="63"/>
+      <c r="C115" s="57"/>
       <c r="D115" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E115" s="63"/>
+      <c r="E115" s="57"/>
       <c r="F115" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G115" s="63"/>
+      <c r="G115" s="57"/>
       <c r="H115" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13665,22 +13665,22 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="63"/>
+      <c r="A116" s="57"/>
       <c r="B116" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C116" s="63"/>
+      <c r="C116" s="57"/>
       <c r="D116" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E116" s="63"/>
+      <c r="E116" s="57"/>
       <c r="F116" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G116" s="63"/>
+      <c r="G116" s="57"/>
       <c r="H116" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13691,22 +13691,22 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="63"/>
+      <c r="A117" s="57"/>
       <c r="B117" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C117" s="63"/>
+      <c r="C117" s="57"/>
       <c r="D117" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E117" s="63"/>
+      <c r="E117" s="57"/>
       <c r="F117" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G117" s="63"/>
+      <c r="G117" s="57"/>
       <c r="H117" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13717,22 +13717,22 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="63"/>
+      <c r="A118" s="57"/>
       <c r="B118" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C118" s="63"/>
+      <c r="C118" s="57"/>
       <c r="D118" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E118" s="63"/>
+      <c r="E118" s="57"/>
       <c r="F118" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G118" s="63"/>
+      <c r="G118" s="57"/>
       <c r="H118" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13743,22 +13743,22 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="63"/>
+      <c r="A119" s="57"/>
       <c r="B119" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C119" s="63"/>
+      <c r="C119" s="57"/>
       <c r="D119" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E119" s="63"/>
+      <c r="E119" s="57"/>
       <c r="F119" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G119" s="63"/>
+      <c r="G119" s="57"/>
       <c r="H119" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13769,22 +13769,22 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="63"/>
+      <c r="A120" s="57"/>
       <c r="B120" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C120" s="63"/>
+      <c r="C120" s="57"/>
       <c r="D120" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E120" s="63"/>
+      <c r="E120" s="57"/>
       <c r="F120" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G120" s="63"/>
+      <c r="G120" s="57"/>
       <c r="H120" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13795,22 +13795,22 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="63"/>
+      <c r="A121" s="57"/>
       <c r="B121" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C121" s="63"/>
+      <c r="C121" s="57"/>
       <c r="D121" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E121" s="63"/>
+      <c r="E121" s="57"/>
       <c r="F121" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G121" s="63"/>
+      <c r="G121" s="57"/>
       <c r="H121" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13821,22 +13821,22 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="63"/>
+      <c r="A122" s="57"/>
       <c r="B122" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C122" s="63"/>
+      <c r="C122" s="57"/>
       <c r="D122" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E122" s="63"/>
+      <c r="E122" s="57"/>
       <c r="F122" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G122" s="63"/>
+      <c r="G122" s="57"/>
       <c r="H122" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13847,22 +13847,22 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="63"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C123" s="63"/>
+      <c r="C123" s="57"/>
       <c r="D123" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E123" s="63"/>
+      <c r="E123" s="57"/>
       <c r="F123" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G123" s="63"/>
+      <c r="G123" s="57"/>
       <c r="H123" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13873,22 +13873,22 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="63"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C124" s="63"/>
+      <c r="C124" s="57"/>
       <c r="D124" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E124" s="63"/>
+      <c r="E124" s="57"/>
       <c r="F124" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G124" s="63"/>
+      <c r="G124" s="57"/>
       <c r="H124" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13899,22 +13899,22 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="63"/>
+      <c r="A125" s="57"/>
       <c r="B125" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C125" s="63"/>
+      <c r="C125" s="57"/>
       <c r="D125" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E125" s="63"/>
+      <c r="E125" s="57"/>
       <c r="F125" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G125" s="63"/>
+      <c r="G125" s="57"/>
       <c r="H125" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13925,22 +13925,22 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="63"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C126" s="63"/>
+      <c r="C126" s="57"/>
       <c r="D126" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E126" s="63"/>
+      <c r="E126" s="57"/>
       <c r="F126" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G126" s="63"/>
+      <c r="G126" s="57"/>
       <c r="H126" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13951,22 +13951,22 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="63"/>
+      <c r="A127" s="57"/>
       <c r="B127" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C127" s="63"/>
+      <c r="C127" s="57"/>
       <c r="D127" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E127" s="63"/>
+      <c r="E127" s="57"/>
       <c r="F127" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G127" s="63"/>
+      <c r="G127" s="57"/>
       <c r="H127" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -13977,22 +13977,22 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="63"/>
+      <c r="A128" s="57"/>
       <c r="B128" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C128" s="63"/>
+      <c r="C128" s="57"/>
       <c r="D128" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E128" s="63"/>
+      <c r="E128" s="57"/>
       <c r="F128" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G128" s="63"/>
+      <c r="G128" s="57"/>
       <c r="H128" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14003,22 +14003,22 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="63"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C129" s="63"/>
+      <c r="C129" s="57"/>
       <c r="D129" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E129" s="63"/>
+      <c r="E129" s="57"/>
       <c r="F129" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G129" s="63"/>
+      <c r="G129" s="57"/>
       <c r="H129" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14029,22 +14029,22 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="63"/>
+      <c r="A130" s="57"/>
       <c r="B130" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C130" s="63"/>
+      <c r="C130" s="57"/>
       <c r="D130" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E130" s="63"/>
+      <c r="E130" s="57"/>
       <c r="F130" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G130" s="63"/>
+      <c r="G130" s="57"/>
       <c r="H130" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14055,22 +14055,22 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="63"/>
+      <c r="A131" s="57"/>
       <c r="B131" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C131" s="63"/>
+      <c r="C131" s="57"/>
       <c r="D131" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E131" s="63"/>
+      <c r="E131" s="57"/>
       <c r="F131" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G131" s="63"/>
+      <c r="G131" s="57"/>
       <c r="H131" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14081,22 +14081,22 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="63"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C132" s="63"/>
+      <c r="C132" s="57"/>
       <c r="D132" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E132" s="63"/>
+      <c r="E132" s="57"/>
       <c r="F132" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G132" s="63"/>
+      <c r="G132" s="57"/>
       <c r="H132" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14107,22 +14107,22 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="63"/>
+      <c r="A133" s="57"/>
       <c r="B133" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C133" s="63"/>
+      <c r="C133" s="57"/>
       <c r="D133" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E133" s="63"/>
+      <c r="E133" s="57"/>
       <c r="F133" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G133" s="63"/>
+      <c r="G133" s="57"/>
       <c r="H133" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14133,22 +14133,22 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="63"/>
+      <c r="A134" s="57"/>
       <c r="B134" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C134" s="63"/>
+      <c r="C134" s="57"/>
       <c r="D134" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E134" s="63"/>
+      <c r="E134" s="57"/>
       <c r="F134" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G134" s="63"/>
+      <c r="G134" s="57"/>
       <c r="H134" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14159,22 +14159,22 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="63"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C135" s="63"/>
+      <c r="C135" s="57"/>
       <c r="D135" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E135" s="63"/>
+      <c r="E135" s="57"/>
       <c r="F135" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G135" s="63"/>
+      <c r="G135" s="57"/>
       <c r="H135" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14185,22 +14185,22 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="63"/>
+      <c r="A136" s="57"/>
       <c r="B136" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C136" s="63"/>
+      <c r="C136" s="57"/>
       <c r="D136" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E136" s="63"/>
+      <c r="E136" s="57"/>
       <c r="F136" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G136" s="63"/>
+      <c r="G136" s="57"/>
       <c r="H136" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14211,22 +14211,22 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="63"/>
+      <c r="A137" s="57"/>
       <c r="B137" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C137" s="63"/>
+      <c r="C137" s="57"/>
       <c r="D137" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E137" s="63"/>
+      <c r="E137" s="57"/>
       <c r="F137" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G137" s="63"/>
+      <c r="G137" s="57"/>
       <c r="H137" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14237,22 +14237,22 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="63"/>
+      <c r="A138" s="57"/>
       <c r="B138" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C138" s="63"/>
+      <c r="C138" s="57"/>
       <c r="D138" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E138" s="63"/>
+      <c r="E138" s="57"/>
       <c r="F138" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G138" s="63"/>
+      <c r="G138" s="57"/>
       <c r="H138" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14263,22 +14263,22 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="63"/>
+      <c r="A139" s="57"/>
       <c r="B139" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C139" s="63"/>
+      <c r="C139" s="57"/>
       <c r="D139" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E139" s="63"/>
+      <c r="E139" s="57"/>
       <c r="F139" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G139" s="63"/>
+      <c r="G139" s="57"/>
       <c r="H139" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14289,22 +14289,22 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="63"/>
+      <c r="A140" s="57"/>
       <c r="B140" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C140" s="63"/>
+      <c r="C140" s="57"/>
       <c r="D140" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E140" s="63"/>
+      <c r="E140" s="57"/>
       <c r="F140" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G140" s="63"/>
+      <c r="G140" s="57"/>
       <c r="H140" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14315,22 +14315,22 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="63"/>
+      <c r="A141" s="57"/>
       <c r="B141" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C141" s="63"/>
+      <c r="C141" s="57"/>
       <c r="D141" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E141" s="63"/>
+      <c r="E141" s="57"/>
       <c r="F141" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G141" s="63"/>
+      <c r="G141" s="57"/>
       <c r="H141" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14341,22 +14341,22 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="63"/>
+      <c r="A142" s="57"/>
       <c r="B142" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C142" s="63"/>
+      <c r="C142" s="57"/>
       <c r="D142" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E142" s="63"/>
+      <c r="E142" s="57"/>
       <c r="F142" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G142" s="63"/>
+      <c r="G142" s="57"/>
       <c r="H142" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14367,22 +14367,22 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="63"/>
+      <c r="A143" s="57"/>
       <c r="B143" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C143" s="63"/>
+      <c r="C143" s="57"/>
       <c r="D143" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E143" s="63"/>
+      <c r="E143" s="57"/>
       <c r="F143" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G143" s="63"/>
+      <c r="G143" s="57"/>
       <c r="H143" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14393,22 +14393,22 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="63"/>
+      <c r="A144" s="57"/>
       <c r="B144" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C144" s="63"/>
+      <c r="C144" s="57"/>
       <c r="D144" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E144" s="63"/>
+      <c r="E144" s="57"/>
       <c r="F144" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G144" s="63"/>
+      <c r="G144" s="57"/>
       <c r="H144" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14419,22 +14419,22 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="63"/>
+      <c r="A145" s="57"/>
       <c r="B145" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C145" s="63"/>
+      <c r="C145" s="57"/>
       <c r="D145" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E145" s="63"/>
+      <c r="E145" s="57"/>
       <c r="F145" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G145" s="63"/>
+      <c r="G145" s="57"/>
       <c r="H145" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14445,22 +14445,22 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="63"/>
+      <c r="A146" s="57"/>
       <c r="B146" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C146" s="63"/>
+      <c r="C146" s="57"/>
       <c r="D146" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E146" s="63"/>
+      <c r="E146" s="57"/>
       <c r="F146" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G146" s="63"/>
+      <c r="G146" s="57"/>
       <c r="H146" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14471,22 +14471,22 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="63"/>
+      <c r="A147" s="57"/>
       <c r="B147" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C147" s="63"/>
+      <c r="C147" s="57"/>
       <c r="D147" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E147" s="63"/>
+      <c r="E147" s="57"/>
       <c r="F147" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G147" s="63"/>
+      <c r="G147" s="57"/>
       <c r="H147" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14497,22 +14497,22 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="63"/>
+      <c r="A148" s="57"/>
       <c r="B148" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C148" s="63"/>
+      <c r="C148" s="57"/>
       <c r="D148" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E148" s="63"/>
+      <c r="E148" s="57"/>
       <c r="F148" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G148" s="63"/>
+      <c r="G148" s="57"/>
       <c r="H148" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14523,22 +14523,22 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="63"/>
+      <c r="A149" s="57"/>
       <c r="B149" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C149" s="63"/>
+      <c r="C149" s="57"/>
       <c r="D149" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E149" s="63"/>
+      <c r="E149" s="57"/>
       <c r="F149" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G149" s="63"/>
+      <c r="G149" s="57"/>
       <c r="H149" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14549,22 +14549,22 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="63"/>
+      <c r="A150" s="57"/>
       <c r="B150" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C150" s="63"/>
+      <c r="C150" s="57"/>
       <c r="D150" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E150" s="63"/>
+      <c r="E150" s="57"/>
       <c r="F150" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G150" s="63"/>
+      <c r="G150" s="57"/>
       <c r="H150" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14575,22 +14575,22 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="63"/>
+      <c r="A151" s="57"/>
       <c r="B151" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C151" s="63"/>
+      <c r="C151" s="57"/>
       <c r="D151" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E151" s="63"/>
+      <c r="E151" s="57"/>
       <c r="F151" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G151" s="63"/>
+      <c r="G151" s="57"/>
       <c r="H151" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14601,22 +14601,22 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="63"/>
+      <c r="A152" s="57"/>
       <c r="B152" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C152" s="63"/>
+      <c r="C152" s="57"/>
       <c r="D152" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E152" s="63"/>
+      <c r="E152" s="57"/>
       <c r="F152" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G152" s="63"/>
+      <c r="G152" s="57"/>
       <c r="H152" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14627,22 +14627,22 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="63"/>
+      <c r="A153" s="57"/>
       <c r="B153" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C153" s="63"/>
+      <c r="C153" s="57"/>
       <c r="D153" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E153" s="63"/>
+      <c r="E153" s="57"/>
       <c r="F153" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G153" s="63"/>
+      <c r="G153" s="57"/>
       <c r="H153" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14653,22 +14653,22 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="63"/>
+      <c r="A154" s="57"/>
       <c r="B154" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C154" s="63"/>
+      <c r="C154" s="57"/>
       <c r="D154" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E154" s="63"/>
+      <c r="E154" s="57"/>
       <c r="F154" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G154" s="63"/>
+      <c r="G154" s="57"/>
       <c r="H154" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14679,22 +14679,22 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="63"/>
+      <c r="A155" s="57"/>
       <c r="B155" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C155" s="63"/>
+      <c r="C155" s="57"/>
       <c r="D155" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E155" s="63"/>
+      <c r="E155" s="57"/>
       <c r="F155" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G155" s="63"/>
+      <c r="G155" s="57"/>
       <c r="H155" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14705,22 +14705,22 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="63"/>
+      <c r="A156" s="57"/>
       <c r="B156" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C156" s="63"/>
+      <c r="C156" s="57"/>
       <c r="D156" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E156" s="63"/>
+      <c r="E156" s="57"/>
       <c r="F156" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G156" s="63"/>
+      <c r="G156" s="57"/>
       <c r="H156" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14731,22 +14731,22 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="63"/>
+      <c r="A157" s="57"/>
       <c r="B157" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C157" s="63"/>
+      <c r="C157" s="57"/>
       <c r="D157" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E157" s="63"/>
+      <c r="E157" s="57"/>
       <c r="F157" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G157" s="63"/>
+      <c r="G157" s="57"/>
       <c r="H157" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14757,22 +14757,22 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="63"/>
+      <c r="A158" s="57"/>
       <c r="B158" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C158" s="63"/>
+      <c r="C158" s="57"/>
       <c r="D158" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E158" s="63"/>
+      <c r="E158" s="57"/>
       <c r="F158" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G158" s="63"/>
+      <c r="G158" s="57"/>
       <c r="H158" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14783,22 +14783,22 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="63"/>
+      <c r="A159" s="57"/>
       <c r="B159" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C159" s="63"/>
+      <c r="C159" s="57"/>
       <c r="D159" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E159" s="63"/>
+      <c r="E159" s="57"/>
       <c r="F159" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G159" s="63"/>
+      <c r="G159" s="57"/>
       <c r="H159" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14809,22 +14809,22 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="63"/>
+      <c r="A160" s="57"/>
       <c r="B160" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C160" s="63"/>
+      <c r="C160" s="57"/>
       <c r="D160" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E160" s="63"/>
+      <c r="E160" s="57"/>
       <c r="F160" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G160" s="63"/>
+      <c r="G160" s="57"/>
       <c r="H160" s="43">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14835,22 +14835,22 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="63"/>
+      <c r="A161" s="57"/>
       <c r="B161" s="43">
         <f t="shared" ref="B161:B224" si="16">A161*$N$7</f>
         <v>0</v>
       </c>
-      <c r="C161" s="63"/>
+      <c r="C161" s="57"/>
       <c r="D161" s="43">
         <f t="shared" ref="D161:D224" si="17">C161*$N$6</f>
         <v>0</v>
       </c>
-      <c r="E161" s="63"/>
+      <c r="E161" s="57"/>
       <c r="F161" s="43">
         <f t="shared" ref="F161:F224" si="18">E161*$N$5</f>
         <v>0</v>
       </c>
-      <c r="G161" s="63"/>
+      <c r="G161" s="57"/>
       <c r="H161" s="43">
         <f t="shared" ref="H161:H224" si="19">G161*$N$4</f>
         <v>0</v>
@@ -14861,22 +14861,22 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="63"/>
+      <c r="A162" s="57"/>
       <c r="B162" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C162" s="63"/>
+      <c r="C162" s="57"/>
       <c r="D162" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E162" s="63"/>
+      <c r="E162" s="57"/>
       <c r="F162" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G162" s="63"/>
+      <c r="G162" s="57"/>
       <c r="H162" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -14887,22 +14887,22 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="63"/>
+      <c r="A163" s="57"/>
       <c r="B163" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C163" s="63"/>
+      <c r="C163" s="57"/>
       <c r="D163" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E163" s="63"/>
+      <c r="E163" s="57"/>
       <c r="F163" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G163" s="63"/>
+      <c r="G163" s="57"/>
       <c r="H163" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -14913,22 +14913,22 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="63"/>
+      <c r="A164" s="57"/>
       <c r="B164" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C164" s="63"/>
+      <c r="C164" s="57"/>
       <c r="D164" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E164" s="63"/>
+      <c r="E164" s="57"/>
       <c r="F164" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G164" s="63"/>
+      <c r="G164" s="57"/>
       <c r="H164" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -14939,22 +14939,22 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="63"/>
+      <c r="A165" s="57"/>
       <c r="B165" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C165" s="63"/>
+      <c r="C165" s="57"/>
       <c r="D165" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E165" s="63"/>
+      <c r="E165" s="57"/>
       <c r="F165" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G165" s="63"/>
+      <c r="G165" s="57"/>
       <c r="H165" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -14965,22 +14965,22 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="63"/>
+      <c r="A166" s="57"/>
       <c r="B166" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C166" s="63"/>
+      <c r="C166" s="57"/>
       <c r="D166" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E166" s="63"/>
+      <c r="E166" s="57"/>
       <c r="F166" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G166" s="63"/>
+      <c r="G166" s="57"/>
       <c r="H166" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -14991,22 +14991,22 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="63"/>
+      <c r="A167" s="57"/>
       <c r="B167" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C167" s="63"/>
+      <c r="C167" s="57"/>
       <c r="D167" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E167" s="63"/>
+      <c r="E167" s="57"/>
       <c r="F167" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G167" s="63"/>
+      <c r="G167" s="57"/>
       <c r="H167" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15017,22 +15017,22 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="63"/>
+      <c r="A168" s="57"/>
       <c r="B168" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C168" s="63"/>
+      <c r="C168" s="57"/>
       <c r="D168" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E168" s="63"/>
+      <c r="E168" s="57"/>
       <c r="F168" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G168" s="63"/>
+      <c r="G168" s="57"/>
       <c r="H168" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15043,22 +15043,22 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="63"/>
+      <c r="A169" s="57"/>
       <c r="B169" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C169" s="63"/>
+      <c r="C169" s="57"/>
       <c r="D169" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E169" s="63"/>
+      <c r="E169" s="57"/>
       <c r="F169" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G169" s="63"/>
+      <c r="G169" s="57"/>
       <c r="H169" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15069,22 +15069,22 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="63"/>
+      <c r="A170" s="57"/>
       <c r="B170" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C170" s="63"/>
+      <c r="C170" s="57"/>
       <c r="D170" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E170" s="63"/>
+      <c r="E170" s="57"/>
       <c r="F170" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G170" s="63"/>
+      <c r="G170" s="57"/>
       <c r="H170" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15095,22 +15095,22 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="63"/>
+      <c r="A171" s="57"/>
       <c r="B171" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C171" s="63"/>
+      <c r="C171" s="57"/>
       <c r="D171" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E171" s="63"/>
+      <c r="E171" s="57"/>
       <c r="F171" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G171" s="63"/>
+      <c r="G171" s="57"/>
       <c r="H171" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15121,22 +15121,22 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="63"/>
+      <c r="A172" s="57"/>
       <c r="B172" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C172" s="63"/>
+      <c r="C172" s="57"/>
       <c r="D172" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E172" s="63"/>
+      <c r="E172" s="57"/>
       <c r="F172" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G172" s="63"/>
+      <c r="G172" s="57"/>
       <c r="H172" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15147,22 +15147,22 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="63"/>
+      <c r="A173" s="57"/>
       <c r="B173" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C173" s="63"/>
+      <c r="C173" s="57"/>
       <c r="D173" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E173" s="63"/>
+      <c r="E173" s="57"/>
       <c r="F173" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G173" s="63"/>
+      <c r="G173" s="57"/>
       <c r="H173" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15173,22 +15173,22 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="63"/>
+      <c r="A174" s="57"/>
       <c r="B174" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C174" s="63"/>
+      <c r="C174" s="57"/>
       <c r="D174" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E174" s="63"/>
+      <c r="E174" s="57"/>
       <c r="F174" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G174" s="63"/>
+      <c r="G174" s="57"/>
       <c r="H174" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15199,22 +15199,22 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="63"/>
+      <c r="A175" s="57"/>
       <c r="B175" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C175" s="63"/>
+      <c r="C175" s="57"/>
       <c r="D175" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E175" s="63"/>
+      <c r="E175" s="57"/>
       <c r="F175" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G175" s="63"/>
+      <c r="G175" s="57"/>
       <c r="H175" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15225,22 +15225,22 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="63"/>
+      <c r="A176" s="57"/>
       <c r="B176" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C176" s="63"/>
+      <c r="C176" s="57"/>
       <c r="D176" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E176" s="63"/>
+      <c r="E176" s="57"/>
       <c r="F176" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G176" s="63"/>
+      <c r="G176" s="57"/>
       <c r="H176" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15251,22 +15251,22 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="63"/>
+      <c r="A177" s="57"/>
       <c r="B177" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C177" s="63"/>
+      <c r="C177" s="57"/>
       <c r="D177" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E177" s="63"/>
+      <c r="E177" s="57"/>
       <c r="F177" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G177" s="63"/>
+      <c r="G177" s="57"/>
       <c r="H177" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15277,22 +15277,22 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="63"/>
+      <c r="A178" s="57"/>
       <c r="B178" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C178" s="63"/>
+      <c r="C178" s="57"/>
       <c r="D178" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E178" s="63"/>
+      <c r="E178" s="57"/>
       <c r="F178" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G178" s="63"/>
+      <c r="G178" s="57"/>
       <c r="H178" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15303,22 +15303,22 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="63"/>
+      <c r="A179" s="57"/>
       <c r="B179" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C179" s="63"/>
+      <c r="C179" s="57"/>
       <c r="D179" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E179" s="63"/>
+      <c r="E179" s="57"/>
       <c r="F179" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G179" s="63"/>
+      <c r="G179" s="57"/>
       <c r="H179" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15329,22 +15329,22 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="63"/>
+      <c r="A180" s="57"/>
       <c r="B180" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C180" s="63"/>
+      <c r="C180" s="57"/>
       <c r="D180" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E180" s="63"/>
+      <c r="E180" s="57"/>
       <c r="F180" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G180" s="63"/>
+      <c r="G180" s="57"/>
       <c r="H180" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15355,22 +15355,22 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="63"/>
+      <c r="A181" s="57"/>
       <c r="B181" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C181" s="63"/>
+      <c r="C181" s="57"/>
       <c r="D181" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E181" s="63"/>
+      <c r="E181" s="57"/>
       <c r="F181" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G181" s="63"/>
+      <c r="G181" s="57"/>
       <c r="H181" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15381,22 +15381,22 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="63"/>
+      <c r="A182" s="57"/>
       <c r="B182" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C182" s="63"/>
+      <c r="C182" s="57"/>
       <c r="D182" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E182" s="63"/>
+      <c r="E182" s="57"/>
       <c r="F182" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G182" s="63"/>
+      <c r="G182" s="57"/>
       <c r="H182" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15407,22 +15407,22 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="63"/>
+      <c r="A183" s="57"/>
       <c r="B183" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C183" s="63"/>
+      <c r="C183" s="57"/>
       <c r="D183" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E183" s="63"/>
+      <c r="E183" s="57"/>
       <c r="F183" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G183" s="63"/>
+      <c r="G183" s="57"/>
       <c r="H183" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15433,22 +15433,22 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="63"/>
+      <c r="A184" s="57"/>
       <c r="B184" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C184" s="63"/>
+      <c r="C184" s="57"/>
       <c r="D184" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E184" s="63"/>
+      <c r="E184" s="57"/>
       <c r="F184" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G184" s="63"/>
+      <c r="G184" s="57"/>
       <c r="H184" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15459,22 +15459,22 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="63"/>
+      <c r="A185" s="57"/>
       <c r="B185" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C185" s="63"/>
+      <c r="C185" s="57"/>
       <c r="D185" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E185" s="63"/>
+      <c r="E185" s="57"/>
       <c r="F185" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G185" s="63"/>
+      <c r="G185" s="57"/>
       <c r="H185" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15485,22 +15485,22 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="63"/>
+      <c r="A186" s="57"/>
       <c r="B186" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C186" s="63"/>
+      <c r="C186" s="57"/>
       <c r="D186" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E186" s="63"/>
+      <c r="E186" s="57"/>
       <c r="F186" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G186" s="63"/>
+      <c r="G186" s="57"/>
       <c r="H186" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15511,22 +15511,22 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="63"/>
+      <c r="A187" s="57"/>
       <c r="B187" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C187" s="63"/>
+      <c r="C187" s="57"/>
       <c r="D187" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E187" s="63"/>
+      <c r="E187" s="57"/>
       <c r="F187" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G187" s="63"/>
+      <c r="G187" s="57"/>
       <c r="H187" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15537,22 +15537,22 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="63"/>
+      <c r="A188" s="57"/>
       <c r="B188" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C188" s="63"/>
+      <c r="C188" s="57"/>
       <c r="D188" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E188" s="63"/>
+      <c r="E188" s="57"/>
       <c r="F188" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G188" s="63"/>
+      <c r="G188" s="57"/>
       <c r="H188" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15563,22 +15563,22 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="63"/>
+      <c r="A189" s="57"/>
       <c r="B189" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C189" s="63"/>
+      <c r="C189" s="57"/>
       <c r="D189" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E189" s="63"/>
+      <c r="E189" s="57"/>
       <c r="F189" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G189" s="63"/>
+      <c r="G189" s="57"/>
       <c r="H189" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15589,22 +15589,22 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="63"/>
+      <c r="A190" s="57"/>
       <c r="B190" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C190" s="63"/>
+      <c r="C190" s="57"/>
       <c r="D190" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E190" s="63"/>
+      <c r="E190" s="57"/>
       <c r="F190" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G190" s="63"/>
+      <c r="G190" s="57"/>
       <c r="H190" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15615,22 +15615,22 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="63"/>
+      <c r="A191" s="57"/>
       <c r="B191" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C191" s="63"/>
+      <c r="C191" s="57"/>
       <c r="D191" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E191" s="63"/>
+      <c r="E191" s="57"/>
       <c r="F191" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G191" s="63"/>
+      <c r="G191" s="57"/>
       <c r="H191" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15641,22 +15641,22 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="63"/>
+      <c r="A192" s="57"/>
       <c r="B192" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C192" s="63"/>
+      <c r="C192" s="57"/>
       <c r="D192" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E192" s="63"/>
+      <c r="E192" s="57"/>
       <c r="F192" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G192" s="63"/>
+      <c r="G192" s="57"/>
       <c r="H192" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15667,22 +15667,22 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="63"/>
+      <c r="A193" s="57"/>
       <c r="B193" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C193" s="63"/>
+      <c r="C193" s="57"/>
       <c r="D193" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E193" s="63"/>
+      <c r="E193" s="57"/>
       <c r="F193" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G193" s="63"/>
+      <c r="G193" s="57"/>
       <c r="H193" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15693,22 +15693,22 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="63"/>
+      <c r="A194" s="57"/>
       <c r="B194" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C194" s="63"/>
+      <c r="C194" s="57"/>
       <c r="D194" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E194" s="63"/>
+      <c r="E194" s="57"/>
       <c r="F194" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G194" s="63"/>
+      <c r="G194" s="57"/>
       <c r="H194" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15719,22 +15719,22 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="63"/>
+      <c r="A195" s="57"/>
       <c r="B195" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C195" s="63"/>
+      <c r="C195" s="57"/>
       <c r="D195" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E195" s="63"/>
+      <c r="E195" s="57"/>
       <c r="F195" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G195" s="63"/>
+      <c r="G195" s="57"/>
       <c r="H195" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15745,22 +15745,22 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="63"/>
+      <c r="A196" s="57"/>
       <c r="B196" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C196" s="63"/>
+      <c r="C196" s="57"/>
       <c r="D196" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E196" s="63"/>
+      <c r="E196" s="57"/>
       <c r="F196" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G196" s="63"/>
+      <c r="G196" s="57"/>
       <c r="H196" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15771,22 +15771,22 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="63"/>
+      <c r="A197" s="57"/>
       <c r="B197" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C197" s="63"/>
+      <c r="C197" s="57"/>
       <c r="D197" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E197" s="63"/>
+      <c r="E197" s="57"/>
       <c r="F197" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G197" s="63"/>
+      <c r="G197" s="57"/>
       <c r="H197" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15797,22 +15797,22 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="63"/>
+      <c r="A198" s="57"/>
       <c r="B198" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C198" s="63"/>
+      <c r="C198" s="57"/>
       <c r="D198" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E198" s="63"/>
+      <c r="E198" s="57"/>
       <c r="F198" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G198" s="63"/>
+      <c r="G198" s="57"/>
       <c r="H198" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15823,22 +15823,22 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="63"/>
+      <c r="A199" s="57"/>
       <c r="B199" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C199" s="63"/>
+      <c r="C199" s="57"/>
       <c r="D199" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E199" s="63"/>
+      <c r="E199" s="57"/>
       <c r="F199" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G199" s="63"/>
+      <c r="G199" s="57"/>
       <c r="H199" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15849,22 +15849,22 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="63"/>
+      <c r="A200" s="57"/>
       <c r="B200" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C200" s="63"/>
+      <c r="C200" s="57"/>
       <c r="D200" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E200" s="63"/>
+      <c r="E200" s="57"/>
       <c r="F200" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G200" s="63"/>
+      <c r="G200" s="57"/>
       <c r="H200" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15875,22 +15875,22 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="63"/>
+      <c r="A201" s="57"/>
       <c r="B201" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C201" s="63"/>
+      <c r="C201" s="57"/>
       <c r="D201" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E201" s="63"/>
+      <c r="E201" s="57"/>
       <c r="F201" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G201" s="63"/>
+      <c r="G201" s="57"/>
       <c r="H201" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15901,22 +15901,22 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="63"/>
+      <c r="A202" s="57"/>
       <c r="B202" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C202" s="63"/>
+      <c r="C202" s="57"/>
       <c r="D202" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E202" s="63"/>
+      <c r="E202" s="57"/>
       <c r="F202" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G202" s="63"/>
+      <c r="G202" s="57"/>
       <c r="H202" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15927,22 +15927,22 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="63"/>
+      <c r="A203" s="57"/>
       <c r="B203" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C203" s="63"/>
+      <c r="C203" s="57"/>
       <c r="D203" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E203" s="63"/>
+      <c r="E203" s="57"/>
       <c r="F203" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G203" s="63"/>
+      <c r="G203" s="57"/>
       <c r="H203" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15953,22 +15953,22 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="63"/>
+      <c r="A204" s="57"/>
       <c r="B204" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C204" s="63"/>
+      <c r="C204" s="57"/>
       <c r="D204" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E204" s="63"/>
+      <c r="E204" s="57"/>
       <c r="F204" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G204" s="63"/>
+      <c r="G204" s="57"/>
       <c r="H204" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -15979,22 +15979,22 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="63"/>
+      <c r="A205" s="57"/>
       <c r="B205" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C205" s="63"/>
+      <c r="C205" s="57"/>
       <c r="D205" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E205" s="63"/>
+      <c r="E205" s="57"/>
       <c r="F205" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G205" s="63"/>
+      <c r="G205" s="57"/>
       <c r="H205" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16005,22 +16005,22 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="63"/>
+      <c r="A206" s="57"/>
       <c r="B206" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C206" s="63"/>
+      <c r="C206" s="57"/>
       <c r="D206" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E206" s="63"/>
+      <c r="E206" s="57"/>
       <c r="F206" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G206" s="63"/>
+      <c r="G206" s="57"/>
       <c r="H206" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16031,22 +16031,22 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="63"/>
+      <c r="A207" s="57"/>
       <c r="B207" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C207" s="63"/>
+      <c r="C207" s="57"/>
       <c r="D207" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E207" s="63"/>
+      <c r="E207" s="57"/>
       <c r="F207" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G207" s="63"/>
+      <c r="G207" s="57"/>
       <c r="H207" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16057,22 +16057,22 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="63"/>
+      <c r="A208" s="57"/>
       <c r="B208" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C208" s="63"/>
+      <c r="C208" s="57"/>
       <c r="D208" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E208" s="63"/>
+      <c r="E208" s="57"/>
       <c r="F208" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G208" s="63"/>
+      <c r="G208" s="57"/>
       <c r="H208" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16083,22 +16083,22 @@
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="63"/>
+      <c r="A209" s="57"/>
       <c r="B209" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C209" s="63"/>
+      <c r="C209" s="57"/>
       <c r="D209" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E209" s="63"/>
+      <c r="E209" s="57"/>
       <c r="F209" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G209" s="63"/>
+      <c r="G209" s="57"/>
       <c r="H209" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16109,22 +16109,22 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="63"/>
+      <c r="A210" s="57"/>
       <c r="B210" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C210" s="63"/>
+      <c r="C210" s="57"/>
       <c r="D210" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E210" s="63"/>
+      <c r="E210" s="57"/>
       <c r="F210" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G210" s="63"/>
+      <c r="G210" s="57"/>
       <c r="H210" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16135,22 +16135,22 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="63"/>
+      <c r="A211" s="57"/>
       <c r="B211" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C211" s="63"/>
+      <c r="C211" s="57"/>
       <c r="D211" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E211" s="63"/>
+      <c r="E211" s="57"/>
       <c r="F211" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G211" s="63"/>
+      <c r="G211" s="57"/>
       <c r="H211" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16161,22 +16161,22 @@
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="63"/>
+      <c r="A212" s="57"/>
       <c r="B212" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C212" s="63"/>
+      <c r="C212" s="57"/>
       <c r="D212" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E212" s="63"/>
+      <c r="E212" s="57"/>
       <c r="F212" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G212" s="63"/>
+      <c r="G212" s="57"/>
       <c r="H212" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16187,22 +16187,22 @@
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="63"/>
+      <c r="A213" s="57"/>
       <c r="B213" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C213" s="63"/>
+      <c r="C213" s="57"/>
       <c r="D213" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E213" s="63"/>
+      <c r="E213" s="57"/>
       <c r="F213" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G213" s="63"/>
+      <c r="G213" s="57"/>
       <c r="H213" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16213,22 +16213,22 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="63"/>
+      <c r="A214" s="57"/>
       <c r="B214" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C214" s="63"/>
+      <c r="C214" s="57"/>
       <c r="D214" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E214" s="63"/>
+      <c r="E214" s="57"/>
       <c r="F214" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G214" s="63"/>
+      <c r="G214" s="57"/>
       <c r="H214" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16239,22 +16239,22 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="63"/>
+      <c r="A215" s="57"/>
       <c r="B215" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C215" s="63"/>
+      <c r="C215" s="57"/>
       <c r="D215" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E215" s="63"/>
+      <c r="E215" s="57"/>
       <c r="F215" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G215" s="63"/>
+      <c r="G215" s="57"/>
       <c r="H215" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16265,22 +16265,22 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="63"/>
+      <c r="A216" s="57"/>
       <c r="B216" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C216" s="63"/>
+      <c r="C216" s="57"/>
       <c r="D216" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E216" s="63"/>
+      <c r="E216" s="57"/>
       <c r="F216" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G216" s="63"/>
+      <c r="G216" s="57"/>
       <c r="H216" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16291,22 +16291,22 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="63"/>
+      <c r="A217" s="57"/>
       <c r="B217" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C217" s="63"/>
+      <c r="C217" s="57"/>
       <c r="D217" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E217" s="63"/>
+      <c r="E217" s="57"/>
       <c r="F217" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G217" s="63"/>
+      <c r="G217" s="57"/>
       <c r="H217" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16317,22 +16317,22 @@
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="63"/>
+      <c r="A218" s="57"/>
       <c r="B218" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C218" s="63"/>
+      <c r="C218" s="57"/>
       <c r="D218" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E218" s="63"/>
+      <c r="E218" s="57"/>
       <c r="F218" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G218" s="63"/>
+      <c r="G218" s="57"/>
       <c r="H218" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16343,22 +16343,22 @@
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="63"/>
+      <c r="A219" s="57"/>
       <c r="B219" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C219" s="63"/>
+      <c r="C219" s="57"/>
       <c r="D219" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E219" s="63"/>
+      <c r="E219" s="57"/>
       <c r="F219" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G219" s="63"/>
+      <c r="G219" s="57"/>
       <c r="H219" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16369,22 +16369,22 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="63"/>
+      <c r="A220" s="57"/>
       <c r="B220" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C220" s="63"/>
+      <c r="C220" s="57"/>
       <c r="D220" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E220" s="63"/>
+      <c r="E220" s="57"/>
       <c r="F220" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G220" s="63"/>
+      <c r="G220" s="57"/>
       <c r="H220" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16395,22 +16395,22 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="63"/>
+      <c r="A221" s="57"/>
       <c r="B221" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C221" s="63"/>
+      <c r="C221" s="57"/>
       <c r="D221" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E221" s="63"/>
+      <c r="E221" s="57"/>
       <c r="F221" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G221" s="63"/>
+      <c r="G221" s="57"/>
       <c r="H221" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16421,22 +16421,22 @@
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="63"/>
+      <c r="A222" s="57"/>
       <c r="B222" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C222" s="63"/>
+      <c r="C222" s="57"/>
       <c r="D222" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E222" s="63"/>
+      <c r="E222" s="57"/>
       <c r="F222" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G222" s="63"/>
+      <c r="G222" s="57"/>
       <c r="H222" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16447,22 +16447,22 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="63"/>
+      <c r="A223" s="57"/>
       <c r="B223" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C223" s="63"/>
+      <c r="C223" s="57"/>
       <c r="D223" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E223" s="63"/>
+      <c r="E223" s="57"/>
       <c r="F223" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G223" s="63"/>
+      <c r="G223" s="57"/>
       <c r="H223" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16473,22 +16473,22 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="63"/>
+      <c r="A224" s="57"/>
       <c r="B224" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C224" s="63"/>
+      <c r="C224" s="57"/>
       <c r="D224" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E224" s="63"/>
+      <c r="E224" s="57"/>
       <c r="F224" s="43">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G224" s="63"/>
+      <c r="G224" s="57"/>
       <c r="H224" s="43">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -16499,22 +16499,22 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="63"/>
+      <c r="A225" s="57"/>
       <c r="B225" s="43">
         <f t="shared" ref="B225:B256" si="21">A225*$N$7</f>
         <v>0</v>
       </c>
-      <c r="C225" s="63"/>
+      <c r="C225" s="57"/>
       <c r="D225" s="43">
         <f t="shared" ref="D225:D256" si="22">C225*$N$6</f>
         <v>0</v>
       </c>
-      <c r="E225" s="63"/>
+      <c r="E225" s="57"/>
       <c r="F225" s="43">
         <f t="shared" ref="F225:F256" si="23">E225*$N$5</f>
         <v>0</v>
       </c>
-      <c r="G225" s="63"/>
+      <c r="G225" s="57"/>
       <c r="H225" s="43">
         <f t="shared" ref="H225:H256" si="24">G225*$N$4</f>
         <v>0</v>
@@ -16525,22 +16525,22 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="63"/>
+      <c r="A226" s="57"/>
       <c r="B226" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C226" s="63"/>
+      <c r="C226" s="57"/>
       <c r="D226" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E226" s="63"/>
+      <c r="E226" s="57"/>
       <c r="F226" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G226" s="63"/>
+      <c r="G226" s="57"/>
       <c r="H226" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16551,22 +16551,22 @@
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="63"/>
+      <c r="A227" s="57"/>
       <c r="B227" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C227" s="63"/>
+      <c r="C227" s="57"/>
       <c r="D227" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E227" s="63"/>
+      <c r="E227" s="57"/>
       <c r="F227" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G227" s="63"/>
+      <c r="G227" s="57"/>
       <c r="H227" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16577,22 +16577,22 @@
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="63"/>
+      <c r="A228" s="57"/>
       <c r="B228" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C228" s="63"/>
+      <c r="C228" s="57"/>
       <c r="D228" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E228" s="63"/>
+      <c r="E228" s="57"/>
       <c r="F228" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G228" s="63"/>
+      <c r="G228" s="57"/>
       <c r="H228" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16603,22 +16603,22 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="63"/>
+      <c r="A229" s="57"/>
       <c r="B229" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C229" s="63"/>
+      <c r="C229" s="57"/>
       <c r="D229" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E229" s="63"/>
+      <c r="E229" s="57"/>
       <c r="F229" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G229" s="63"/>
+      <c r="G229" s="57"/>
       <c r="H229" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16629,22 +16629,22 @@
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="63"/>
+      <c r="A230" s="57"/>
       <c r="B230" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C230" s="63"/>
+      <c r="C230" s="57"/>
       <c r="D230" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E230" s="63"/>
+      <c r="E230" s="57"/>
       <c r="F230" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G230" s="63"/>
+      <c r="G230" s="57"/>
       <c r="H230" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16655,22 +16655,22 @@
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="63"/>
+      <c r="A231" s="57"/>
       <c r="B231" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C231" s="63"/>
+      <c r="C231" s="57"/>
       <c r="D231" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E231" s="63"/>
+      <c r="E231" s="57"/>
       <c r="F231" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G231" s="63"/>
+      <c r="G231" s="57"/>
       <c r="H231" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16681,22 +16681,22 @@
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="63"/>
+      <c r="A232" s="57"/>
       <c r="B232" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C232" s="63"/>
+      <c r="C232" s="57"/>
       <c r="D232" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E232" s="63"/>
+      <c r="E232" s="57"/>
       <c r="F232" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G232" s="63"/>
+      <c r="G232" s="57"/>
       <c r="H232" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16707,22 +16707,22 @@
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="63"/>
+      <c r="A233" s="57"/>
       <c r="B233" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C233" s="63"/>
+      <c r="C233" s="57"/>
       <c r="D233" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E233" s="63"/>
+      <c r="E233" s="57"/>
       <c r="F233" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G233" s="63"/>
+      <c r="G233" s="57"/>
       <c r="H233" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16733,22 +16733,22 @@
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="63"/>
+      <c r="A234" s="57"/>
       <c r="B234" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C234" s="63"/>
+      <c r="C234" s="57"/>
       <c r="D234" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E234" s="63"/>
+      <c r="E234" s="57"/>
       <c r="F234" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G234" s="63"/>
+      <c r="G234" s="57"/>
       <c r="H234" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16759,22 +16759,22 @@
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="63"/>
+      <c r="A235" s="57"/>
       <c r="B235" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C235" s="63"/>
+      <c r="C235" s="57"/>
       <c r="D235" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E235" s="63"/>
+      <c r="E235" s="57"/>
       <c r="F235" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G235" s="63"/>
+      <c r="G235" s="57"/>
       <c r="H235" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16785,22 +16785,22 @@
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="63"/>
+      <c r="A236" s="57"/>
       <c r="B236" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C236" s="63"/>
+      <c r="C236" s="57"/>
       <c r="D236" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E236" s="63"/>
+      <c r="E236" s="57"/>
       <c r="F236" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G236" s="63"/>
+      <c r="G236" s="57"/>
       <c r="H236" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16811,22 +16811,22 @@
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="63"/>
+      <c r="A237" s="57"/>
       <c r="B237" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C237" s="63"/>
+      <c r="C237" s="57"/>
       <c r="D237" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E237" s="63"/>
+      <c r="E237" s="57"/>
       <c r="F237" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G237" s="63"/>
+      <c r="G237" s="57"/>
       <c r="H237" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16837,22 +16837,22 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="63"/>
+      <c r="A238" s="57"/>
       <c r="B238" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C238" s="63"/>
+      <c r="C238" s="57"/>
       <c r="D238" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E238" s="63"/>
+      <c r="E238" s="57"/>
       <c r="F238" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G238" s="63"/>
+      <c r="G238" s="57"/>
       <c r="H238" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16863,22 +16863,22 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="63"/>
+      <c r="A239" s="57"/>
       <c r="B239" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C239" s="63"/>
+      <c r="C239" s="57"/>
       <c r="D239" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E239" s="63"/>
+      <c r="E239" s="57"/>
       <c r="F239" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G239" s="63"/>
+      <c r="G239" s="57"/>
       <c r="H239" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16889,22 +16889,22 @@
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="63"/>
+      <c r="A240" s="57"/>
       <c r="B240" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C240" s="63"/>
+      <c r="C240" s="57"/>
       <c r="D240" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E240" s="63"/>
+      <c r="E240" s="57"/>
       <c r="F240" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G240" s="63"/>
+      <c r="G240" s="57"/>
       <c r="H240" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16915,22 +16915,22 @@
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="63"/>
+      <c r="A241" s="57"/>
       <c r="B241" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C241" s="63"/>
+      <c r="C241" s="57"/>
       <c r="D241" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E241" s="63"/>
+      <c r="E241" s="57"/>
       <c r="F241" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G241" s="63"/>
+      <c r="G241" s="57"/>
       <c r="H241" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16941,22 +16941,22 @@
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="63"/>
+      <c r="A242" s="57"/>
       <c r="B242" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C242" s="63"/>
+      <c r="C242" s="57"/>
       <c r="D242" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E242" s="63"/>
+      <c r="E242" s="57"/>
       <c r="F242" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G242" s="63"/>
+      <c r="G242" s="57"/>
       <c r="H242" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16967,22 +16967,22 @@
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="63"/>
+      <c r="A243" s="57"/>
       <c r="B243" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C243" s="63"/>
+      <c r="C243" s="57"/>
       <c r="D243" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E243" s="63"/>
+      <c r="E243" s="57"/>
       <c r="F243" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G243" s="63"/>
+      <c r="G243" s="57"/>
       <c r="H243" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -16993,22 +16993,22 @@
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="63"/>
+      <c r="A244" s="57"/>
       <c r="B244" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C244" s="63"/>
+      <c r="C244" s="57"/>
       <c r="D244" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E244" s="63"/>
+      <c r="E244" s="57"/>
       <c r="F244" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G244" s="63"/>
+      <c r="G244" s="57"/>
       <c r="H244" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17019,22 +17019,22 @@
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" s="63"/>
+      <c r="A245" s="57"/>
       <c r="B245" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C245" s="63"/>
+      <c r="C245" s="57"/>
       <c r="D245" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E245" s="63"/>
+      <c r="E245" s="57"/>
       <c r="F245" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G245" s="63"/>
+      <c r="G245" s="57"/>
       <c r="H245" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17045,22 +17045,22 @@
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="63"/>
+      <c r="A246" s="57"/>
       <c r="B246" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C246" s="63"/>
+      <c r="C246" s="57"/>
       <c r="D246" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E246" s="63"/>
+      <c r="E246" s="57"/>
       <c r="F246" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G246" s="63"/>
+      <c r="G246" s="57"/>
       <c r="H246" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17071,22 +17071,22 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="63"/>
+      <c r="A247" s="57"/>
       <c r="B247" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C247" s="63"/>
+      <c r="C247" s="57"/>
       <c r="D247" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E247" s="63"/>
+      <c r="E247" s="57"/>
       <c r="F247" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G247" s="63"/>
+      <c r="G247" s="57"/>
       <c r="H247" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17097,22 +17097,22 @@
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="63"/>
+      <c r="A248" s="57"/>
       <c r="B248" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C248" s="63"/>
+      <c r="C248" s="57"/>
       <c r="D248" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E248" s="63"/>
+      <c r="E248" s="57"/>
       <c r="F248" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G248" s="63"/>
+      <c r="G248" s="57"/>
       <c r="H248" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17123,22 +17123,22 @@
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" s="63"/>
+      <c r="A249" s="57"/>
       <c r="B249" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C249" s="63"/>
+      <c r="C249" s="57"/>
       <c r="D249" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E249" s="63"/>
+      <c r="E249" s="57"/>
       <c r="F249" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G249" s="63"/>
+      <c r="G249" s="57"/>
       <c r="H249" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17149,22 +17149,22 @@
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" s="63"/>
+      <c r="A250" s="57"/>
       <c r="B250" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C250" s="63"/>
+      <c r="C250" s="57"/>
       <c r="D250" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E250" s="63"/>
+      <c r="E250" s="57"/>
       <c r="F250" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G250" s="63"/>
+      <c r="G250" s="57"/>
       <c r="H250" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17175,22 +17175,22 @@
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" s="63"/>
+      <c r="A251" s="57"/>
       <c r="B251" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C251" s="63"/>
+      <c r="C251" s="57"/>
       <c r="D251" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E251" s="63"/>
+      <c r="E251" s="57"/>
       <c r="F251" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G251" s="63"/>
+      <c r="G251" s="57"/>
       <c r="H251" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17201,22 +17201,22 @@
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="63"/>
+      <c r="A252" s="57"/>
       <c r="B252" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C252" s="63"/>
+      <c r="C252" s="57"/>
       <c r="D252" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E252" s="63"/>
+      <c r="E252" s="57"/>
       <c r="F252" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G252" s="63"/>
+      <c r="G252" s="57"/>
       <c r="H252" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17227,22 +17227,22 @@
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="63"/>
+      <c r="A253" s="57"/>
       <c r="B253" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C253" s="63"/>
+      <c r="C253" s="57"/>
       <c r="D253" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E253" s="63"/>
+      <c r="E253" s="57"/>
       <c r="F253" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G253" s="63"/>
+      <c r="G253" s="57"/>
       <c r="H253" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17253,22 +17253,22 @@
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" s="63"/>
+      <c r="A254" s="57"/>
       <c r="B254" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C254" s="63"/>
+      <c r="C254" s="57"/>
       <c r="D254" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E254" s="63"/>
+      <c r="E254" s="57"/>
       <c r="F254" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G254" s="63"/>
+      <c r="G254" s="57"/>
       <c r="H254" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17279,22 +17279,22 @@
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" s="63"/>
+      <c r="A255" s="57"/>
       <c r="B255" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C255" s="63"/>
+      <c r="C255" s="57"/>
       <c r="D255" s="43">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E255" s="63"/>
+      <c r="E255" s="57"/>
       <c r="F255" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G255" s="63"/>
+      <c r="G255" s="57"/>
       <c r="H255" s="43">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17305,22 +17305,22 @@
       </c>
     </row>
     <row r="256" spans="1:9" s="46" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="63"/>
+      <c r="A256" s="57"/>
       <c r="B256" s="45">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="C256" s="63"/>
+      <c r="C256" s="57"/>
       <c r="D256" s="45">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E256" s="63"/>
+      <c r="E256" s="57"/>
       <c r="F256" s="45">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G256" s="63"/>
+      <c r="G256" s="57"/>
       <c r="H256" s="45">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17360,7 +17360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -17444,24 +17444,24 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18" t="s">
         <v>134</v>
@@ -17529,26 +17529,26 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55" t="s">
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="18" t="s">
         <v>135</v>
@@ -17610,7 +17610,7 @@
       <c r="D14" s="40"/>
       <c r="E14" s="25"/>
       <c r="F14" s="40"/>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="58" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="7"/>
@@ -17662,7 +17662,7 @@
         <v>111</v>
       </c>
       <c r="F16" s="27"/>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="58" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="2"/>
@@ -17689,7 +17689,7 @@
         <v>111</v>
       </c>
       <c r="F17" s="27"/>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="58" t="s">
         <v>130</v>
       </c>
       <c r="H17" s="2"/>
@@ -17716,7 +17716,7 @@
         <v>111</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="58" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="2"/>
@@ -18030,26 +18030,26 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="56" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -18113,30 +18113,30 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
       <c r="N9" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -18209,7 +18209,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2">
@@ -18229,7 +18229,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -18247,7 +18247,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -18265,7 +18265,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -18283,7 +18283,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -18301,7 +18301,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -18319,7 +18319,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -18337,7 +18337,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -18355,7 +18355,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -18373,7 +18373,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -18391,7 +18391,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -18409,7 +18409,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -18427,7 +18427,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -18445,7 +18445,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -18463,7 +18463,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -18481,7 +18481,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -18499,7 +18499,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -18517,7 +18517,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -18535,7 +18535,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -18553,7 +18553,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -18571,7 +18571,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -18589,7 +18589,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -18607,7 +18607,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -18625,7 +18625,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -18643,7 +18643,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -18661,7 +18661,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -18679,7 +18679,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -18697,7 +18697,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -18715,7 +18715,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -18733,7 +18733,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -18751,7 +18751,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -18769,7 +18769,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -18787,7 +18787,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -18805,7 +18805,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -18823,7 +18823,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -18841,7 +18841,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -18859,7 +18859,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="64" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="2">
@@ -18879,7 +18879,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="2">
         <v>37</v>
       </c>
@@ -18897,7 +18897,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="2">
         <v>38</v>
       </c>
@@ -18915,7 +18915,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="2">
         <v>39</v>
       </c>
@@ -18933,7 +18933,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="2">
         <v>40</v>
       </c>
@@ -18951,7 +18951,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="2">
         <v>41</v>
       </c>
@@ -18969,7 +18969,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="2">
         <v>42</v>
       </c>
@@ -18987,7 +18987,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="2">
         <v>43</v>
       </c>
@@ -19005,7 +19005,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="2">
         <v>44</v>
       </c>
@@ -19023,7 +19023,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="2">
         <v>45</v>
       </c>
@@ -19041,7 +19041,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="2">
         <v>46</v>
       </c>
@@ -19059,7 +19059,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="2">
         <v>47</v>
       </c>
@@ -19077,7 +19077,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
+      <c r="A50" s="64"/>
       <c r="B50" s="2">
         <v>48</v>
       </c>
@@ -19095,7 +19095,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="2">
         <v>49</v>
       </c>
@@ -19113,7 +19113,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
+      <c r="A52" s="64"/>
       <c r="B52" s="2">
         <v>50</v>
       </c>
@@ -19131,7 +19131,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
+      <c r="A53" s="64"/>
       <c r="B53" s="2">
         <v>51</v>
       </c>
@@ -19149,7 +19149,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="2">
         <v>52</v>
       </c>
@@ -19167,7 +19167,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
+      <c r="A55" s="64"/>
       <c r="B55" s="2">
         <v>53</v>
       </c>
@@ -19185,7 +19185,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
+      <c r="A56" s="64"/>
       <c r="B56" s="2">
         <v>54</v>
       </c>
@@ -19203,7 +19203,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
+      <c r="A57" s="64"/>
       <c r="B57" s="2">
         <v>55</v>
       </c>
@@ -19221,7 +19221,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
+      <c r="A58" s="64"/>
       <c r="B58" s="2">
         <v>56</v>
       </c>
@@ -19239,7 +19239,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="2">
         <v>57</v>
       </c>
@@ -19257,7 +19257,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="2">
         <v>58</v>
       </c>
@@ -19275,7 +19275,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
+      <c r="A61" s="64"/>
       <c r="B61" s="2">
         <v>59</v>
       </c>
@@ -19287,7 +19287,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
+      <c r="A62" s="64"/>
       <c r="B62" s="2">
         <v>60</v>
       </c>
@@ -19299,7 +19299,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="60"/>
+      <c r="A63" s="64"/>
       <c r="B63" s="2">
         <v>61</v>
       </c>
@@ -19311,7 +19311,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
+      <c r="A64" s="64"/>
       <c r="B64" s="2">
         <v>62</v>
       </c>
@@ -19323,7 +19323,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
+      <c r="A65" s="64"/>
       <c r="B65" s="2">
         <v>63</v>
       </c>
